--- a/template_examples/tissue_dna_template.xlsx
+++ b/template_examples/tissue_dna_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DB675D-8904-A148-8AA6-DA031985C5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3DE3D8-C05C-8246-A1C4-96E05C964996}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shipment" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -688,9 +688,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Olink</t>
-  </si>
-  <si>
     <t>USPS</t>
   </si>
   <si>
@@ -709,9 +706,6 @@
     <t>ship to</t>
   </si>
   <si>
-    <t>Adaptive Biotechnologies</t>
-  </si>
-  <si>
     <t>Baseline</t>
   </si>
   <si>
@@ -784,24 +778,6 @@
     <t>Date received</t>
   </si>
   <si>
-    <t>TTTPP101</t>
-  </si>
-  <si>
-    <t>TTTPP102</t>
-  </si>
-  <si>
-    <t>TTTPP103</t>
-  </si>
-  <si>
-    <t>TTTPP201</t>
-  </si>
-  <si>
-    <t>TTTPP202</t>
-  </si>
-  <si>
-    <t>TTTPP203</t>
-  </si>
-  <si>
     <t>test_prism_trial_id</t>
   </si>
   <si>
@@ -811,24 +787,6 @@
     <t>Not Reported</t>
   </si>
   <si>
-    <t>CTTTP01N1.00</t>
-  </si>
-  <si>
-    <t>CTTTP01N2.00</t>
-  </si>
-  <si>
-    <t>CTTTP01N3.00</t>
-  </si>
-  <si>
-    <t>CTTTP02N1.00</t>
-  </si>
-  <si>
-    <t>CTTTP02N2.00</t>
-  </si>
-  <si>
-    <t>CTTTP02N3.00</t>
-  </si>
-  <si>
     <t>Processed Sample Derivative</t>
   </si>
   <si>
@@ -911,6 +869,48 @@
   </si>
   <si>
     <t>Ice_Pack</t>
+  </si>
+  <si>
+    <t>WES</t>
+  </si>
+  <si>
+    <t>Broad_Cibulskis</t>
+  </si>
+  <si>
+    <t>CTTTP03N1.00</t>
+  </si>
+  <si>
+    <t>CTTTP03N2.00</t>
+  </si>
+  <si>
+    <t>CTTTP03N3.00</t>
+  </si>
+  <si>
+    <t>CTTTP04N1.00</t>
+  </si>
+  <si>
+    <t>CTTTP04N2.00</t>
+  </si>
+  <si>
+    <t>CTTTP04N3.00</t>
+  </si>
+  <si>
+    <t>TTTPP301</t>
+  </si>
+  <si>
+    <t>TTTPP303</t>
+  </si>
+  <si>
+    <t>TTTPP302</t>
+  </si>
+  <si>
+    <t>TTTPP401</t>
+  </si>
+  <si>
+    <t>TTTPP402</t>
+  </si>
+  <si>
+    <t>TTTPP403</t>
   </si>
 </sst>
 </file>
@@ -1570,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1600,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1614,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1642,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1656,7 +1656,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1670,7 +1670,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1684,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1698,7 +1698,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1712,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1737,7 +1737,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3">
         <v>37539</v>
@@ -1754,7 +1754,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1768,7 +1768,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1782,7 +1782,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2800,9 +2800,6 @@
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{5AB95F91-84A5-A44D-A1D9-66A6AF4724BA}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,Not Reported,Other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{5F8B2AEC-EDE5-C44B-A714-783B06DCAC87}">
-      <formula1>"Olink,Not Reported,Other"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{0D19CD82-2118-DA4F-84DD-8D7D25E5E47B}">
       <formula1>"Frozen_Dry_Ice,Frozen_Shipper,Ice_Pack,Ambient,Not Reported,Other"</formula1>
@@ -2817,7 +2814,10 @@
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{D81C2091-8E55-1248-9AD1-250272DBC233}">
-      <formula1>"MDA_CIMAC,MSSM_CIMAC,STAN_CIMAC,DFCI_CIMAC,Broad_CIMAC,FNLCR_MoCha,Nationwide Children's Hospital,Adaptive Biotechnologies,Not Reported,Other"</formula1>
+      <formula1>"MDA_CIMAC,MSSM_CIMAC,STAN_CIMAC,DFCI_CIMAC,Broad_Cibulskis,FNLCR_MoCha,Nationwide Children's Hospital,Adaptive Biotechnologies,Not Reported,Other"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{419E5390-521F-7449-90A1-7CC97DB25A6F}">
+      <formula1>"Olink,Not Reported,Other,WES"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2829,8 +2829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG202"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:S6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2935,40 +2935,40 @@
         <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>32</v>
@@ -3006,61 +3006,61 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P3" s="14">
         <v>1</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R3" s="7">
         <v>1</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="T3" s="7">
         <v>1</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="V3" s="10">
         <v>9</v>
@@ -3075,28 +3075,28 @@
         <v>1</v>
       </c>
       <c r="Z3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD3" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG3" t="s">
         <v>56</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="17">
@@ -3107,61 +3107,61 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P4" s="15">
         <v>1</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R4" s="7">
         <v>2</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T4" s="7">
         <v>2</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="V4" s="11">
         <v>9</v>
@@ -3176,28 +3176,28 @@
         <v>1</v>
       </c>
       <c r="Z4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD4" t="s">
         <v>55</v>
       </c>
-      <c r="AC4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>57</v>
-      </c>
       <c r="AE4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AG4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="17">
@@ -3208,61 +3208,61 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P5" s="16">
         <v>2</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R5" s="7">
         <v>3</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="T5" s="7">
         <v>3</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="V5" s="10">
         <v>8</v>
@@ -3277,25 +3277,25 @@
         <v>1</v>
       </c>
       <c r="Z5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD5" t="s">
         <v>55</v>
       </c>
-      <c r="AC5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>57</v>
-      </c>
       <c r="AE5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="17">
@@ -3306,61 +3306,61 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P6" s="14">
         <v>1</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R6" s="7">
         <v>4</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T6" s="7">
         <v>4</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="V6" s="10">
         <v>9</v>
@@ -3375,25 +3375,25 @@
         <v>1</v>
       </c>
       <c r="Z6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" t="s">
         <v>55</v>
       </c>
-      <c r="AC6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>57</v>
-      </c>
       <c r="AE6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="17">
@@ -3404,61 +3404,61 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>52</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P7" s="15">
         <v>1</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R7" s="7">
         <v>5</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T7" s="7">
         <v>5</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="V7" s="11">
         <v>9</v>
@@ -3473,25 +3473,25 @@
         <v>1</v>
       </c>
       <c r="Z7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD7" t="s">
         <v>55</v>
       </c>
-      <c r="AC7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>57</v>
-      </c>
       <c r="AE7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="17">
@@ -3502,61 +3502,61 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P8" s="16">
         <v>2</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="R8" s="7">
         <v>6</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="T8" s="7">
         <v>6</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="V8" s="10">
         <v>8</v>
@@ -3571,25 +3571,25 @@
         <v>1</v>
       </c>
       <c r="Z8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD8" t="s">
         <v>55</v>
       </c>
-      <c r="AC8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>57</v>
-      </c>
       <c r="AE8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:33">
